--- a/medicine/Mort/Cimetière_de_Volvic/Cimetière_de_Volvic.xlsx
+++ b/medicine/Mort/Cimetière_de_Volvic/Cimetière_de_Volvic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Volvic</t>
+          <t>Cimetière_de_Volvic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Volvic est le cimetière municipal de Volvic dans le département du Puy-de-Dôme. Il est considéré dans sa partie ancienne comme « un conservatoire à ciel ouvert de l'art funéraire du XIXe siècle en Basse-Auvergne »[1]. Il se trouve rue de la Libération[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Volvic est le cimetière municipal de Volvic dans le département du Puy-de-Dôme. Il est considéré dans sa partie ancienne comme « un conservatoire à ciel ouvert de l'art funéraire du XIXe siècle en Basse-Auvergne ». Il se trouve rue de la Libération.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Volvic</t>
+          <t>Cimetière_de_Volvic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière, mis en service en 1811[3], est typique de ceux de la région avec dans sa partie ancienne ses tombeaux hauts en pierre volcanique de Volvic de couleur gris foncé[4], pierre de lave lisse, utilisée en particulier par les tailleurs de pierre pour l'art funéraire[5]. Beaucoup de sépultures sont remarquables, avec hautes stèles, ornements végétaux, anges et pleureuses; ainsi que les quelques chapelles ouvragées et la haute colonne avec médaillon en lave émaillée[6] sur le socle de la famille des propriétaires des carrières de la pierre de Volvic, les riches entrepreneurs Brosson. La stèle de la famille Machebœuf[7] avec ses mains unies et ses cœurs jumeaux est un modèle de l'iconographie locale. On note aussi la chapelle Chanteloube d'architecture néoclassique au fin décor[8]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière, mis en service en 1811, est typique de ceux de la région avec dans sa partie ancienne ses tombeaux hauts en pierre volcanique de Volvic de couleur gris foncé, pierre de lave lisse, utilisée en particulier par les tailleurs de pierre pour l'art funéraire. Beaucoup de sépultures sont remarquables, avec hautes stèles, ornements végétaux, anges et pleureuses; ainsi que les quelques chapelles ouvragées et la haute colonne avec médaillon en lave émaillée sur le socle de la famille des propriétaires des carrières de la pierre de Volvic, les riches entrepreneurs Brosson. La stèle de la famille Machebœuf avec ses mains unies et ses cœurs jumeaux est un modèle de l'iconographie locale. On note aussi la chapelle Chanteloube d'architecture néoclassique au fin décor. 
 Le cimetière s'étend en quatre parties sur  1 231 mètres carrés, avec le cimetière ancien, l'extension de 1942-1943, l'extension de 1965 et la dernière de 1977-1978. Le cimetière possède un jardin du souvenir et deux columbariums de douze casiers chacun. Les parties modernes ne présentent aucun intérêt, les tombes étant toutes faites sur les mêmes modèles en granito ou marbres de catalogue.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Volvic</t>
+          <t>Cimetière_de_Volvic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fernand Auteroche (1914-2018), sculpteur
 Joseph Barrière (1874-1957), peintre
